--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:52+00:00</t>
+    <t>2024-06-03T14:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -885,7 +885,7 @@
     <t>Slot.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-sos-schedule-aggregator)
+    <t xml:space="preserve">Reference(http://sas.fr/fhir/StructureDefinition/FrScheduleAgregateur)
 </t>
   </si>
   <si>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:45:40+00:00</t>
+    <t>2024-06-05T16:09:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -819,7 +819,107 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ActCode</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
   </si>
   <si>
     <t>Slot.serviceType.text</t>
@@ -907,9 +1007,6 @@
     <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -941,10 +1038,6 @@
   </si>
   <si>
     <t>Slot.overbooked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>This slot has already been overbooked, appointments are unlikely to be accepted for this time</t>
@@ -1265,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1275,7 +1368,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4640,13 +4733,11 @@
         <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -4664,7 +4755,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4681,10 +4772,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4704,23 +4795,19 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>72</v>
       </c>
@@ -4768,7 +4855,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -4777,22 +4864,22 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -4808,19 +4895,19 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4846,31 +4933,31 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -4882,15 +4969,15 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4913,18 +5000,20 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>72</v>
       </c>
@@ -4933,7 +5022,7 @@
         <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>72</v>
@@ -4948,11 +5037,13 @@
         <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>72</v>
@@ -4970,7 +5061,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -4987,10 +5078,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5010,18 +5101,20 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>72</v>
@@ -5070,7 +5163,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5079,29 +5172,29 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5110,21 +5203,23 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>72</v>
       </c>
@@ -5160,39 +5255,39 @@
         <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5203,7 +5298,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5215,19 +5310,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5252,11 +5347,13 @@
         <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -5274,13 +5371,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>92</v>
@@ -5291,10 +5388,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5317,19 +5414,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -5378,7 +5475,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5395,10 +5492,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5406,7 +5503,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -5421,18 +5518,20 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
       </c>
@@ -5480,10 +5579,10 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -5492,15 +5591,15 @@
         <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>236</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5508,10 +5607,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5523,16 +5622,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5543,7 +5642,7 @@
         <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>72</v>
@@ -5561,10 +5660,10 @@
         <v>138</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>72</v>
@@ -5582,13 +5681,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>92</v>
@@ -5599,10 +5698,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5610,7 +5709,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -5625,16 +5724,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5660,13 +5759,11 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5684,10 +5781,10 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -5701,10 +5798,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5712,7 +5809,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -5724,20 +5821,18 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>72</v>
@@ -5786,38 +5881,38 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5829,22 +5924,22 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>72</v>
       </c>
@@ -5876,39 +5971,39 @@
         <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5919,7 +6014,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -5928,21 +6023,23 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>72</v>
       </c>
@@ -5966,13 +6063,11 @@
         <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -5990,18 +6085,734 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T16:09:02+00:00</t>
+    <t>2024-06-06T08:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -794,7 +794,7 @@
     <t>sas-servicetype-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-slot-servicetype-aggregator}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType}
 </t>
   </si>
   <si>
@@ -1377,7 +1377,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.73046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="336">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T08:13:16+00:00</t>
+    <t>2024-06-06T12:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,7 +436,7 @@
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
+    <t>type de créneau : public, pro, SNP, CPTS</t>
   </si>
   <si>
     <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>type de créneau : public, pro, SNP, CPTS</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typecreneau</t>
@@ -794,14 +791,14 @@
     <t>sas-servicetype-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType.reference}
 </t>
   </si>
   <si>
     <t>Extension</t>
   </si>
   <si>
-    <t>Test extension R5</t>
+    <t>Extension créée afin de permettre la reference à la ressource HealthcareService. Cette extension implemente l'élément serviceType de R5 https://hl7.org/fhir/slot-definitions.html#Slot.serviceType</t>
   </si>
   <si>
     <t>Slot.serviceType.coding</t>
@@ -1377,7 +1374,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.73046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2491,29 +2488,27 @@
       <c r="X11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Y11" s="2"/>
+      <c r="Z11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2530,10 +2525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2559,13 +2554,13 @@
         <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2591,31 +2586,31 @@
         <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2632,10 +2627,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2661,13 +2656,13 @@
         <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2717,7 +2712,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2734,10 +2729,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2760,16 +2755,16 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2795,31 +2790,31 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
@@ -2836,14 +2831,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2862,16 +2857,16 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2921,7 +2916,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -2938,14 +2933,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2964,16 +2959,16 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3023,7 +3018,7 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -3040,10 +3035,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3072,7 +3067,7 @@
         <v>102</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>104</v>
@@ -3125,7 +3120,7 @@
         <v>107</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -3142,10 +3137,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3171,16 +3166,16 @@
         <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>104</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>72</v>
@@ -3229,7 +3224,7 @@
         <v>107</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3246,10 +3241,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3272,13 +3267,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3329,7 +3324,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3346,10 +3341,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3446,10 +3441,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3548,10 +3543,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3574,19 +3569,19 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>72</v>
@@ -3614,28 +3609,28 @@
         <v>138</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3652,10 +3647,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3678,19 +3673,19 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>72</v>
@@ -3715,31 +3710,31 @@
         <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3756,10 +3751,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3785,16 +3780,16 @@
         <v>122</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -3807,43 +3802,43 @@
         <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3860,10 +3855,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3889,13 +3884,13 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3909,43 +3904,43 @@
         <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3962,10 +3957,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3988,16 +3983,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4047,7 +4042,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4059,15 +4054,15 @@
         <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4090,16 +4085,16 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4149,7 +4144,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4161,15 +4156,15 @@
         <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4192,16 +4187,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4227,11 +4222,11 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -4249,7 +4244,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4266,10 +4261,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4292,16 +4287,16 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4327,11 +4322,11 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -4349,7 +4344,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4366,10 +4361,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4466,10 +4461,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4568,13 +4563,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>72</v>
@@ -4584,7 +4579,7 @@
         <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4596,13 +4591,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4670,10 +4665,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4699,16 +4694,16 @@
         <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -4737,25 +4732,25 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4772,10 +4767,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4872,10 +4867,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4974,10 +4969,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5003,16 +4998,16 @@
         <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>72</v>
@@ -5022,46 +5017,46 @@
         <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5078,10 +5073,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5107,13 +5102,13 @@
         <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5163,7 +5158,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5180,10 +5175,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5206,19 +5201,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>72</v>
@@ -5267,7 +5262,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5284,10 +5279,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5313,16 +5308,16 @@
         <v>95</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5371,7 +5366,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5388,10 +5383,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5414,19 +5409,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -5475,7 +5470,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5492,10 +5487,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5521,16 +5516,16 @@
         <v>95</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -5579,7 +5574,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -5596,10 +5591,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5622,16 +5617,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5660,11 +5655,11 @@
         <v>138</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>72</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -5698,10 +5693,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5724,16 +5719,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5759,11 +5754,11 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5781,7 +5776,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5798,10 +5793,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5898,10 +5893,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6000,10 +5995,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6029,16 +6024,16 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>72</v>
@@ -6067,7 +6062,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -6085,7 +6080,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6102,10 +6097,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6131,16 +6126,16 @@
         <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -6189,7 +6184,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6206,10 +6201,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6232,16 +6227,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6291,7 +6286,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -6303,15 +6298,15 @@
         <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6334,16 +6329,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6354,7 +6349,7 @@
         <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>72</v>
@@ -6372,11 +6367,11 @@
         <v>138</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>72</v>
       </c>
@@ -6393,7 +6388,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -6410,10 +6405,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6439,13 +6434,13 @@
         <v>116</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6495,7 +6490,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -6512,10 +6507,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6541,13 +6536,13 @@
         <v>116</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -6597,7 +6592,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -6614,10 +6609,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6640,13 +6635,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6654,7 +6649,7 @@
         <v>72</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>72</v>
@@ -6699,7 +6694,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -6716,10 +6711,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6745,13 +6740,13 @@
         <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -6801,7 +6796,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T12:20:34+00:00</t>
+    <t>2024-06-06T13:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -779,6 +779,10 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>Slot.serviceType.id</t>
   </si>
   <si>
@@ -791,7 +795,7 @@
     <t>sas-servicetype-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType.reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType}
 </t>
   </si>
   <si>
@@ -816,18 +820,63 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
+    <t>Slot.serviceType:type.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:type.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:type.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:type.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:type.coding.id</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.id</t>
   </si>
   <si>
+    <t>Slot.serviceType:type.coding.extension</t>
+  </si>
+  <si>
     <t>Slot.serviceType.coding.extension</t>
   </si>
   <si>
+    <t>Slot.serviceType:type.coding.system</t>
+  </si>
+  <si>
     <t>Slot.serviceType.coding.system</t>
   </si>
   <si>
@@ -849,6 +898,9 @@
     <t>Coding.system</t>
   </si>
   <si>
+    <t>Slot.serviceType:type.coding.version</t>
+  </si>
+  <si>
     <t>Slot.serviceType.coding.version</t>
   </si>
   <si>
@@ -864,6 +916,9 @@
     <t>Coding.version</t>
   </si>
   <si>
+    <t>Slot.serviceType:type.coding.code</t>
+  </si>
+  <si>
     <t>Slot.serviceType.coding.code</t>
   </si>
   <si>
@@ -882,6 +937,9 @@
     <t>Coding.code</t>
   </si>
   <si>
+    <t>Slot.serviceType:type.coding.display</t>
+  </si>
+  <si>
     <t>Slot.serviceType.coding.display</t>
   </si>
   <si>
@@ -895,6 +953,9 @@
   </si>
   <si>
     <t>Coding.display</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:type.coding.userSelected</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.userSelected</t>
@@ -919,22 +980,108 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
-    <t>Slot.serviceType.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
+    <t>Slot.serviceType:type.text</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts</t>
+  </si>
+  <si>
+    <t>cpts</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/service-type"/&gt;
+    &lt;code value="1"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.url</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.value[x]</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-healthcareservice-aggregator)
+</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:cpts.text</t>
   </si>
   <si>
     <t>Slot.specialty</t>
@@ -1355,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AJ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1364,7 +1511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.3125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.86328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1374,7 +1521,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4332,16 +4479,14 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>241</v>
@@ -4361,10 +4506,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4461,10 +4606,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4563,13 +4708,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="C32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>72</v>
@@ -4591,13 +4736,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4665,10 +4810,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4694,16 +4839,16 @@
         <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -4728,11 +4873,13 @@
         <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -4790,19 +4937,23 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>72</v>
       </c>
@@ -4850,7 +5001,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -4859,22 +5010,24 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -4890,19 +5043,19 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4928,31 +5081,29 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -4964,15 +5115,15 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4992,23 +5143,19 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>72</v>
       </c>
@@ -5017,7 +5164,7 @@
         <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>72</v>
@@ -5056,7 +5203,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5065,29 +5212,29 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5096,19 +5243,19 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>103</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5146,41 +5293,43 @@
         <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>72</v>
       </c>
@@ -5189,7 +5338,7 @@
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5198,23 +5347,19 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>72</v>
       </c>
@@ -5262,27 +5407,27 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5293,7 +5438,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5305,19 +5450,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5366,13 +5511,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>92</v>
@@ -5383,10 +5528,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5406,23 +5551,19 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>72</v>
       </c>
@@ -5470,7 +5611,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5479,29 +5620,29 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5510,23 +5651,21 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>72</v>
       </c>
@@ -5562,39 +5701,39 @@
         <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5605,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5617,18 +5756,20 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>72</v>
       </c>
@@ -5637,7 +5778,7 @@
         <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>72</v>
@@ -5652,13 +5793,13 @@
         <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>72</v>
@@ -5676,13 +5817,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>92</v>
@@ -5693,10 +5834,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5719,16 +5860,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5754,11 +5895,13 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5776,7 +5919,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5793,10 +5936,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5816,19 +5959,23 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>72</v>
       </c>
@@ -5876,7 +6023,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -5885,29 +6032,29 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5916,21 +6063,23 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>72</v>
       </c>
@@ -5966,39 +6115,39 @@
         <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6009,7 +6158,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -6021,19 +6170,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>72</v>
@@ -6058,11 +6207,13 @@
         <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -6080,13 +6231,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>92</v>
@@ -6097,10 +6248,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6126,16 +6277,16 @@
         <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -6184,7 +6335,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6201,21 +6352,23 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -6227,16 +6380,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6247,7 +6400,7 @@
         <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>72</v>
@@ -6262,13 +6415,11 @@
         <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>72</v>
@@ -6286,27 +6437,27 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>235</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6314,7 +6465,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -6326,20 +6477,18 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -6349,7 +6498,7 @@
         <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>72</v>
@@ -6364,13 +6513,13 @@
         <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>72</v>
@@ -6388,27 +6537,27 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6419,7 +6568,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>72</v>
@@ -6428,20 +6577,18 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -6478,41 +6625,43 @@
         <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>72</v>
       </c>
@@ -6530,20 +6679,18 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>72</v>
@@ -6592,27 +6739,27 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6635,22 +6782,20 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q52" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
         <v>72</v>
       </c>
@@ -6694,7 +6839,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -6703,18 +6848,18 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6725,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -6737,17 +6882,15 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -6784,30 +6927,1762 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AC55" s="2"/>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y60" s="2"/>
+      <c r="Z60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:15:28+00:00</t>
+    <t>2024-06-06T13:38:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -779,7 +779,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -841,40 +841,40 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
-    <t>Slot.serviceType:type</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>Slot.serviceType:TypeConsultation</t>
+  </si>
+  <si>
+    <t>TypeConsultation</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:type.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:type.extension:sas-servicetype-r5</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:type.coding</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:type.coding.id</t>
+    <t>Slot.serviceType:TypeConsultation.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.coding.id</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.id</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.coding.extension</t>
+    <t>Slot.serviceType:TypeConsultation.coding.extension</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.extension</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.coding.system</t>
+    <t>Slot.serviceType:TypeConsultation.coding.system</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.system</t>
@@ -898,7 +898,7 @@
     <t>Coding.system</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.coding.version</t>
+    <t>Slot.serviceType:TypeConsultation.coding.version</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.version</t>
@@ -916,7 +916,7 @@
     <t>Coding.version</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.coding.code</t>
+    <t>Slot.serviceType:TypeConsultation.coding.code</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.code</t>
@@ -937,7 +937,7 @@
     <t>Coding.code</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.coding.display</t>
+    <t>Slot.serviceType:TypeConsultation.coding.display</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.display</t>
@@ -955,7 +955,7 @@
     <t>Coding.display</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.coding.userSelected</t>
+    <t>Slot.serviceType:TypeConsultation.coding.userSelected</t>
   </si>
   <si>
     <t>Slot.serviceType.coding.userSelected</t>
@@ -980,13 +980,13 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
-    <t>Slot.serviceType:type.text</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:cpts</t>
-  </si>
-  <si>
-    <t>cpts</t>
+    <t>Slot.serviceType:TypeConsultation.text</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts</t>
+  </si>
+  <si>
+    <t>referencecpts</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -997,31 +997,31 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:cpts.extension</t>
+    <t>Slot.serviceType:referencecpts.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts.extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.id</t>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.id</t>
   </si>
   <si>
     <t>Slot.serviceType.extension.id</t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.extension</t>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.extension</t>
   </si>
   <si>
     <t>Slot.serviceType.extension.extension</t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.url</t>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.url</t>
   </si>
   <si>
     <t>Slot.serviceType.extension.url</t>
@@ -1042,7 +1042,7 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.value[x]</t>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.value[x]</t>
   </si>
   <si>
     <t>Slot.serviceType.extension.value[x]</t>
@@ -1068,7 +1068,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.extension:sas-servicetype-r5.value[x]:valueReference</t>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.value[x]:valueReference</t>
   </si>
   <si>
     <t>valueReference</t>
@@ -1078,10 +1078,10 @@
 </t>
   </si>
   <si>
-    <t>Slot.serviceType:cpts.coding</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:cpts.text</t>
+    <t>Slot.serviceType:referencecpts.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts.text</t>
   </si>
   <si>
     <t>Slot.specialty</t>
@@ -1511,7 +1511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:38:29+00:00</t>
+    <t>2024-06-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -779,7 +779,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:50:16+00:00</t>
+    <t>2024-06-06T15:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1048,34 +1048,17 @@
     <t>Slot.serviceType.extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-healthcareservice-aggregator)
 </t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.coding</t>
@@ -1502,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ70"/>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1511,7 +1494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1521,7 +1504,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7129,17 +7112,19 @@
         <v>72</v>
       </c>
       <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7156,14 +7141,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7172,7 +7155,7 @@
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -7181,19 +7164,23 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7241,13 +7228,13 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>92</v>
@@ -7258,10 +7245,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7272,7 +7259,7 @@
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -7284,19 +7271,19 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
@@ -7345,13 +7332,13 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>92</v>
@@ -7362,10 +7349,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7376,7 +7363,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -7388,20 +7375,18 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
@@ -7425,13 +7410,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -7449,13 +7434,13 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>92</v>
@@ -7480,7 +7465,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -7527,13 +7512,11 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y59" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y59" s="2"/>
+      <c r="Z59" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -7557,7 +7540,7 @@
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>92</v>
@@ -7568,10 +7551,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7591,20 +7574,18 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -7629,11 +7610,13 @@
         <v>72</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
@@ -7651,7 +7634,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -7660,29 +7643,29 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -7694,15 +7677,17 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
@@ -7739,43 +7724,43 @@
         <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -7791,21 +7776,23 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -7829,31 +7816,29 @@
         <v>72</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -7865,15 +7850,15 @@
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7884,7 +7869,7 @@
         <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -7896,19 +7881,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -7933,11 +7918,13 @@
         <v>72</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -7955,13 +7942,13 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>92</v>
@@ -7972,10 +7959,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7983,7 +7970,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -7998,20 +7985,18 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8059,10 +8044,10 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -8071,7 +8056,7 @@
         <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
@@ -8102,16 +8087,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8122,7 +8107,7 @@
         <v>72</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>72</v>
@@ -8137,13 +8122,13 @@
         <v>72</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>72</v>
+        <v>362</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>72</v>
@@ -8173,15 +8158,15 @@
         <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>235</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8204,16 +8189,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8224,7 +8209,7 @@
         <v>72</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>72</v>
@@ -8239,13 +8224,13 @@
         <v>72</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>367</v>
+        <v>72</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -8263,7 +8248,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -8280,10 +8265,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8309,13 +8294,13 @@
         <v>116</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8365,7 +8350,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -8382,10 +8367,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8393,7 +8378,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -8405,25 +8390,25 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>72</v>
       </c>
@@ -8467,10 +8452,10 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
@@ -8484,10 +8469,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8510,22 +8495,22 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>72</v>
       </c>
@@ -8569,7 +8554,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -8581,108 +8566,6 @@
         <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T15:04:41+00:00</t>
+    <t>2024-06-10T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -989,12 +989,7 @@
     <t>referencecpts</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/service-type"/&gt;
-    &lt;code value="1"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-categorieetablissement</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.id</t>
@@ -6383,7 +6378,7 @@
         <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>72</v>
@@ -6398,11 +6393,11 @@
         <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>72</v>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:12:05+00:00</t>
+    <t>2024-06-11T07:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,7 +448,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typecreneau</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-cpts-valueset-typecreneau</t>
   </si>
   <si>
     <t>Meta.security</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T07:35:27+00:00</t>
+    <t>2024-06-12T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T14:11:34+00:00</t>
+    <t>2024-06-12T15:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1043,17 +1043,34 @@
     <t>Slot.serviceType.extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-healthcareservice-aggregator)
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.coding</t>
@@ -1480,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ69"/>
+  <dimension ref="A1:AJ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1489,7 +1506,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7047,7 +7064,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -7107,19 +7124,17 @@
         <v>72</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7136,21 +7151,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -7159,23 +7176,19 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7223,13 +7236,13 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>92</v>
@@ -7240,10 +7253,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7254,7 +7267,7 @@
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -7266,19 +7279,19 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
@@ -7327,13 +7340,13 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>92</v>
@@ -7344,10 +7357,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7358,7 +7371,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -7370,18 +7383,20 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
@@ -7405,13 +7420,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -7429,13 +7444,13 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>92</v>
@@ -7460,7 +7475,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -7507,11 +7522,13 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -7535,7 +7552,7 @@
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>92</v>
@@ -7546,10 +7563,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7569,18 +7586,20 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -7605,13 +7624,11 @@
         <v>72</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
@@ -7629,7 +7646,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -7638,29 +7655,29 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -7672,17 +7689,15 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
@@ -7719,43 +7734,43 @@
         <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -7771,23 +7786,21 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -7811,29 +7824,31 @@
         <v>72</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -7845,15 +7860,15 @@
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7864,7 +7879,7 @@
         <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -7876,19 +7891,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -7913,13 +7928,11 @@
         <v>72</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -7937,13 +7950,13 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>92</v>
@@ -7954,10 +7967,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7965,7 +7978,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -7980,18 +7993,20 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8039,10 +8054,10 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -8051,7 +8066,7 @@
         <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>235</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
@@ -8082,16 +8097,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8102,7 +8117,7 @@
         <v>72</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>72</v>
@@ -8117,13 +8132,13 @@
         <v>72</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>361</v>
+        <v>72</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>72</v>
@@ -8153,15 +8168,15 @@
         <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8184,16 +8199,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8204,7 +8219,7 @@
         <v>72</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>72</v>
@@ -8219,13 +8234,13 @@
         <v>72</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>72</v>
+        <v>366</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>72</v>
+        <v>367</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -8243,7 +8258,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -8260,10 +8275,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8289,13 +8304,13 @@
         <v>116</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8345,7 +8360,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -8362,10 +8377,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8373,7 +8388,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -8385,25 +8400,25 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>72</v>
       </c>
@@ -8447,10 +8462,10 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
@@ -8464,10 +8479,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8490,22 +8505,22 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="R69" t="s" s="2">
         <v>72</v>
       </c>
@@ -8549,7 +8564,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -8561,6 +8576,108 @@
         <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T15:35:22+00:00</t>
+    <t>2024-06-13T07:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T07:18:59+00:00</t>
+    <t>2024-06-14T14:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1043,34 +1043,17 @@
     <t>Slot.serviceType.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-healthcareservice-aggregator)
 </t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.coding</t>
@@ -1497,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ70"/>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1506,7 +1489,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7064,7 +7047,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -7124,17 +7107,19 @@
         <v>72</v>
       </c>
       <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7151,23 +7136,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -7176,19 +7159,23 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7236,13 +7223,13 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>92</v>
@@ -7253,10 +7240,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7267,7 +7254,7 @@
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -7279,19 +7266,19 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
@@ -7340,13 +7327,13 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>92</v>
@@ -7357,10 +7344,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7371,7 +7358,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -7383,20 +7370,18 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
@@ -7420,13 +7405,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -7444,13 +7429,13 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>92</v>
@@ -7475,7 +7460,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -7522,13 +7507,11 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y59" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y59" s="2"/>
+      <c r="Z59" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -7552,7 +7535,7 @@
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>92</v>
@@ -7563,10 +7546,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7586,20 +7569,18 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -7624,11 +7605,13 @@
         <v>72</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
@@ -7646,7 +7629,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -7655,29 +7638,29 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -7689,15 +7672,17 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
@@ -7734,43 +7719,43 @@
         <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -7786,21 +7771,23 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -7824,31 +7811,29 @@
         <v>72</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -7860,15 +7845,15 @@
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7879,7 +7864,7 @@
         <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -7891,19 +7876,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -7928,11 +7913,13 @@
         <v>72</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -7950,13 +7937,13 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>92</v>
@@ -7967,10 +7954,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7978,7 +7965,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -7993,20 +7980,18 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8054,10 +8039,10 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -8066,7 +8051,7 @@
         <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
@@ -8097,16 +8082,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8117,7 +8102,7 @@
         <v>72</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>72</v>
@@ -8132,13 +8117,13 @@
         <v>72</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>72</v>
+        <v>362</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>72</v>
@@ -8168,15 +8153,15 @@
         <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>235</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8199,16 +8184,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8219,7 +8204,7 @@
         <v>72</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>72</v>
@@ -8234,13 +8219,13 @@
         <v>72</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>367</v>
+        <v>72</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -8258,7 +8243,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -8275,10 +8260,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8304,13 +8289,13 @@
         <v>116</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8360,7 +8345,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -8377,10 +8362,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8388,7 +8373,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -8400,25 +8385,25 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>72</v>
       </c>
@@ -8462,10 +8447,10 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
@@ -8479,10 +8464,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8505,22 +8490,22 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>72</v>
       </c>
@@ -8564,7 +8549,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -8576,108 +8561,6 @@
         <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T14:49:07+00:00</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T15:03:51+00:00</t>
+    <t>2024-06-19T08:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1098,7 +1098,7 @@
     <t>Slot.appointmentType.coding</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-appointmentreason</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-appointmentreason</t>
   </si>
   <si>
     <t>Slot.appointmentType.text</t>
@@ -1514,7 +1514,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.92578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:58:37+00:00</t>
+    <t>2024-06-19T13:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:37:34+00:00</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
